--- a/tut05/output/0501EE35.xlsx
+++ b/tut05/output/0501EE35.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.530612244897959</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>9.727272727272727</v>
+        <v>9.73</v>
       </c>
       <c r="D6" t="n">
-        <v>9.304347826086957</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>9.152173913043478</v>
+        <v>9.15</v>
       </c>
       <c r="F6" t="n">
-        <v>9.538461538461538</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>8.025</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>8.232558139534884</v>
+        <v>8.23</v>
       </c>
       <c r="I6" t="n">
-        <v>9.368421052631579</v>
+        <v>9.369999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.530612244897959</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>9.623655913978494</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>9.517985611510792</v>
+        <v>9.52</v>
       </c>
       <c r="E8" t="n">
-        <v>9.427027027027027</v>
+        <v>9.43</v>
       </c>
       <c r="F8" t="n">
-        <v>9.446428571428571</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>9.231060606060606</v>
+        <v>9.23</v>
       </c>
       <c r="H8" t="n">
-        <v>9.091205211726384</v>
+        <v>9.09</v>
       </c>
       <c r="I8" t="n">
-        <v>9.121739130434783</v>
+        <v>9.119999999999999</v>
       </c>
     </row>
   </sheetData>
